--- a/pred_ohlcv/54_21/2019-10-27 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 BTG ohlcv.xlsx
@@ -2004,7 +2004,7 @@
         <v>-1368.43810301</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1239.09740301</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1241.09740301</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1141.09740301</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1143.09740301</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1105.03210301</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1091.43290301</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1104.43290301</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1115.43290301</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1115.43290301</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1155.43290301</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1030.55230301</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>27.5146800600005</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-46.8729199399995</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-46.6498199399995</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-46.5497199399995</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-55.7884199399995</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-52.9884199399995</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-149.5245199399995</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-179.3598199399995</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-93.11621993999951</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-80.49235750999951</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-80.49235750999951</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-80.26935750999951</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-98.06455750999952</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-97.96365750999952</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-98.91895750999952</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 BTG ohlcv.xlsx
@@ -2030,7 +2030,7 @@
         <v>-1239.09740301</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1241.09740301</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1141.09740301</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1143.09740301</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1105.03210301</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1105.03210301</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1096.45280301</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1076.19480301</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1198.61820301</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1188.61820301</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1170.61820301</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1154.61820301</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>27.5146800600005</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-47.1059199399995</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-55.7884199399995</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-52.9884199399995</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-149.5245199399995</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-179.3598199399995</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-93.11621993999951</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-80.49235750999951</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-80.49235750999951</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-80.26935750999951</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-98.06455750999952</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-97.96365750999952</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-92.35365750999952</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-97.34115750999952</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-98.91895750999952</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-98.77995750999952</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-103.6662575099995</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-98.78855750999952</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
